--- a/data/pca/factorExposure/factorExposure_2016-06-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01010373479159825</v>
+        <v>0.01242146240857715</v>
       </c>
       <c r="C2">
-        <v>0.05299780239567688</v>
+        <v>0.04018874657255838</v>
       </c>
       <c r="D2">
-        <v>0.04161807755604245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06054232091261662</v>
+      </c>
+      <c r="E2">
+        <v>-0.08001529086117833</v>
+      </c>
+      <c r="F2">
+        <v>0.0620606386343201</v>
+      </c>
+      <c r="G2">
+        <v>-0.04406508139050597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03951322417780425</v>
+        <v>0.02353207599172462</v>
       </c>
       <c r="C3">
-        <v>0.1129218261712772</v>
+        <v>0.07121904146757294</v>
       </c>
       <c r="D3">
-        <v>0.09179452287810583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07777590975091719</v>
+      </c>
+      <c r="E3">
+        <v>-0.06637514932833827</v>
+      </c>
+      <c r="F3">
+        <v>-0.02461775536307236</v>
+      </c>
+      <c r="G3">
+        <v>0.03549385282976835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05787241683343462</v>
+        <v>0.05579752786139504</v>
       </c>
       <c r="C4">
-        <v>0.06209937398826715</v>
+        <v>0.06490554728470485</v>
       </c>
       <c r="D4">
-        <v>0.03368066099503856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05898685400776228</v>
+      </c>
+      <c r="E4">
+        <v>-0.08043743286482645</v>
+      </c>
+      <c r="F4">
+        <v>0.07377055238335235</v>
+      </c>
+      <c r="G4">
+        <v>0.03573158620272725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0376210934006555</v>
+        <v>0.03433867673894127</v>
       </c>
       <c r="C6">
-        <v>0.03888223885779953</v>
+        <v>0.03021725572955835</v>
       </c>
       <c r="D6">
-        <v>0.03072825167264824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06039637134146088</v>
+      </c>
+      <c r="E6">
+        <v>-0.0818927551019193</v>
+      </c>
+      <c r="F6">
+        <v>0.04915033132139068</v>
+      </c>
+      <c r="G6">
+        <v>0.02180306271414053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02023109092686243</v>
+        <v>0.01707290815618578</v>
       </c>
       <c r="C7">
-        <v>0.0456560741807252</v>
+        <v>0.03821296233617504</v>
       </c>
       <c r="D7">
-        <v>-0.003293529364453809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03763986031637311</v>
+      </c>
+      <c r="E7">
+        <v>-0.05720279377839938</v>
+      </c>
+      <c r="F7">
+        <v>0.09374862911082839</v>
+      </c>
+      <c r="G7">
+        <v>0.009741440577961797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004775989926429876</v>
+        <v>0.00275285029015275</v>
       </c>
       <c r="C8">
-        <v>0.03524769674350788</v>
+        <v>0.03169942675594983</v>
       </c>
       <c r="D8">
-        <v>0.02499085038408444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03305343016124179</v>
+      </c>
+      <c r="E8">
+        <v>-0.05428272753784619</v>
+      </c>
+      <c r="F8">
+        <v>0.03084753763502668</v>
+      </c>
+      <c r="G8">
+        <v>0.006613836453537631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03202583932300608</v>
+        <v>0.03568996978331488</v>
       </c>
       <c r="C9">
-        <v>0.04833897570720332</v>
+        <v>0.05152032210460818</v>
       </c>
       <c r="D9">
-        <v>0.01781558935920042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04280425844488705</v>
+      </c>
+      <c r="E9">
+        <v>-0.06813126948205224</v>
+      </c>
+      <c r="F9">
+        <v>0.08002218976941863</v>
+      </c>
+      <c r="G9">
+        <v>0.02178694833951223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08414371783577627</v>
+        <v>0.1044908165054211</v>
       </c>
       <c r="C10">
-        <v>-0.1879789293717269</v>
+        <v>-0.193435108141787</v>
       </c>
       <c r="D10">
-        <v>-0.008959242966337232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009374059006856266</v>
+      </c>
+      <c r="E10">
+        <v>-0.04402790028089978</v>
+      </c>
+      <c r="F10">
+        <v>0.03353480190425105</v>
+      </c>
+      <c r="G10">
+        <v>0.01265070285683209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03876527324486608</v>
+        <v>0.03490662242777019</v>
       </c>
       <c r="C11">
-        <v>0.05396715943730144</v>
+        <v>0.04920341908731601</v>
       </c>
       <c r="D11">
-        <v>0.01748740389248001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03412415992957157</v>
+      </c>
+      <c r="E11">
+        <v>-0.02259561630781157</v>
+      </c>
+      <c r="F11">
+        <v>0.06345853262797178</v>
+      </c>
+      <c r="G11">
+        <v>0.01705978207709064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04072321953950977</v>
+        <v>0.03707732205718878</v>
       </c>
       <c r="C12">
-        <v>0.0488189744263642</v>
+        <v>0.04641931635178179</v>
       </c>
       <c r="D12">
-        <v>0.006580488722946613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02771840454573954</v>
+      </c>
+      <c r="E12">
+        <v>-0.03098701886274408</v>
+      </c>
+      <c r="F12">
+        <v>0.06385715496428336</v>
+      </c>
+      <c r="G12">
+        <v>0.01347973373932283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01083114037806167</v>
+        <v>0.009861194065784864</v>
       </c>
       <c r="C13">
-        <v>0.05198777961160464</v>
+        <v>0.04150203242760123</v>
       </c>
       <c r="D13">
-        <v>0.01438647228882358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04983796321694348</v>
+      </c>
+      <c r="E13">
+        <v>-0.09236271289059969</v>
+      </c>
+      <c r="F13">
+        <v>0.08684147336511681</v>
+      </c>
+      <c r="G13">
+        <v>0.01971370907616574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006241073989310288</v>
+        <v>0.003756601822227899</v>
       </c>
       <c r="C14">
-        <v>0.04122805860186313</v>
+        <v>0.03345774080297169</v>
       </c>
       <c r="D14">
-        <v>-0.009581647991200098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02489674315011282</v>
+      </c>
+      <c r="E14">
+        <v>-0.04548450391983328</v>
+      </c>
+      <c r="F14">
+        <v>0.08803290292621223</v>
+      </c>
+      <c r="G14">
+        <v>-0.003980170830981574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002901546184437072</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004927815553813218</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007126590777383628</v>
+      </c>
+      <c r="E15">
+        <v>-0.003590119166479034</v>
+      </c>
+      <c r="F15">
+        <v>0.00571742543616812</v>
+      </c>
+      <c r="G15">
+        <v>0.0001198953210736422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03560390136477911</v>
+        <v>0.03311480190167194</v>
       </c>
       <c r="C16">
-        <v>0.04877597672689325</v>
+        <v>0.04516975306943031</v>
       </c>
       <c r="D16">
-        <v>0.01187947664713995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02792625838974614</v>
+      </c>
+      <c r="E16">
+        <v>-0.0364942611671597</v>
+      </c>
+      <c r="F16">
+        <v>0.06375732326330055</v>
+      </c>
+      <c r="G16">
+        <v>0.002318851852088218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01787340496410607</v>
+        <v>0.01423477765667947</v>
       </c>
       <c r="C19">
-        <v>0.06548442667986824</v>
+        <v>0.04761615553532485</v>
       </c>
       <c r="D19">
-        <v>0.08324985170787988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08778117649456249</v>
+      </c>
+      <c r="E19">
+        <v>-0.1048683427067453</v>
+      </c>
+      <c r="F19">
+        <v>0.06182756881952854</v>
+      </c>
+      <c r="G19">
+        <v>-0.02775393948237614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01408956893765003</v>
+        <v>0.01183789361360192</v>
       </c>
       <c r="C20">
-        <v>0.04812947120188384</v>
+        <v>0.03904401984806481</v>
       </c>
       <c r="D20">
-        <v>0.01253786208863276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03542643374794462</v>
+      </c>
+      <c r="E20">
+        <v>-0.07368716194114099</v>
+      </c>
+      <c r="F20">
+        <v>0.06870892230152129</v>
+      </c>
+      <c r="G20">
+        <v>0.00632636305986481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008103339493274101</v>
+        <v>0.007864511598976392</v>
       </c>
       <c r="C21">
-        <v>0.0501309739683516</v>
+        <v>0.04235884238439958</v>
       </c>
       <c r="D21">
-        <v>0.03721474295193809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06362533462710056</v>
+      </c>
+      <c r="E21">
+        <v>-0.1147489110755547</v>
+      </c>
+      <c r="F21">
+        <v>0.1078143007405907</v>
+      </c>
+      <c r="G21">
+        <v>0.006212802995503702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0006879216193807523</v>
+        <v>0.002447691064933995</v>
       </c>
       <c r="C22">
-        <v>0.0004636217930442574</v>
+        <v>0.02505627068311289</v>
       </c>
       <c r="D22">
-        <v>0.001503005310495519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04220656922548296</v>
+      </c>
+      <c r="E22">
+        <v>-0.03706263593995983</v>
+      </c>
+      <c r="F22">
+        <v>0.009168165820249811</v>
+      </c>
+      <c r="G22">
+        <v>0.03749106358139324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0006935123672624181</v>
+        <v>0.002518947576072221</v>
       </c>
       <c r="C23">
-        <v>0.0004635381874483986</v>
+        <v>0.02521359151092021</v>
       </c>
       <c r="D23">
-        <v>0.001510231498335289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.041868607939812</v>
+      </c>
+      <c r="E23">
+        <v>-0.03733177801217329</v>
+      </c>
+      <c r="F23">
+        <v>0.008944046438201285</v>
+      </c>
+      <c r="G23">
+        <v>0.03769365324980179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03219064355457144</v>
+        <v>0.03276185771575912</v>
       </c>
       <c r="C24">
-        <v>0.05086138965475454</v>
+        <v>0.05302255290411605</v>
       </c>
       <c r="D24">
-        <v>0.01227854369820741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02816002817187794</v>
+      </c>
+      <c r="E24">
+        <v>-0.03765950736617054</v>
+      </c>
+      <c r="F24">
+        <v>0.07025961891328109</v>
+      </c>
+      <c r="G24">
+        <v>0.009780073095844766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04555535594393396</v>
+        <v>0.04240306709586088</v>
       </c>
       <c r="C25">
-        <v>0.06328881040754748</v>
+        <v>0.05755976383358922</v>
       </c>
       <c r="D25">
-        <v>0.004189178349484431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0272273460775532</v>
+      </c>
+      <c r="E25">
+        <v>-0.02956141013072966</v>
+      </c>
+      <c r="F25">
+        <v>0.07339652589916192</v>
+      </c>
+      <c r="G25">
+        <v>0.02752767903997396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01423896465288151</v>
+        <v>0.01394790837664011</v>
       </c>
       <c r="C26">
-        <v>0.01884237578776155</v>
+        <v>0.01756416978609503</v>
       </c>
       <c r="D26">
-        <v>0.0001740931749918063</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02384828825798937</v>
+      </c>
+      <c r="E26">
+        <v>-0.04658339896959065</v>
+      </c>
+      <c r="F26">
+        <v>0.06350374779369625</v>
+      </c>
+      <c r="G26">
+        <v>-0.01360284247667519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1014276623301205</v>
+        <v>0.1410065222052195</v>
       </c>
       <c r="C28">
-        <v>-0.2384889686049857</v>
+        <v>-0.246392676940499</v>
       </c>
       <c r="D28">
-        <v>-0.01366185366061634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02705345356699551</v>
+      </c>
+      <c r="E28">
+        <v>-0.05972957788859368</v>
+      </c>
+      <c r="F28">
+        <v>0.05332240827124082</v>
+      </c>
+      <c r="G28">
+        <v>0.02217914149787115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006591825354848786</v>
+        <v>0.005299682295237852</v>
       </c>
       <c r="C29">
-        <v>0.03331613120108445</v>
+        <v>0.02965189413536939</v>
       </c>
       <c r="D29">
-        <v>-0.01379453965427691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01879203627137573</v>
+      </c>
+      <c r="E29">
+        <v>-0.04568343856849711</v>
+      </c>
+      <c r="F29">
+        <v>0.08205197461415825</v>
+      </c>
+      <c r="G29">
+        <v>0.00967280489712251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04195875103329894</v>
+        <v>0.03850501250574191</v>
       </c>
       <c r="C30">
-        <v>0.05564284835569843</v>
+        <v>0.05780850202466817</v>
       </c>
       <c r="D30">
-        <v>0.07177823625456967</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1005392090924114</v>
+      </c>
+      <c r="E30">
+        <v>-0.06966576511023745</v>
+      </c>
+      <c r="F30">
+        <v>0.07757034626631627</v>
+      </c>
+      <c r="G30">
+        <v>-0.0136762963375102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05453077690979712</v>
+        <v>0.05519424164110644</v>
       </c>
       <c r="C31">
-        <v>0.04636817186105757</v>
+        <v>0.06168984977724894</v>
       </c>
       <c r="D31">
-        <v>-0.02257800479275536</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006981537493598983</v>
+      </c>
+      <c r="E31">
+        <v>-0.06914083686334799</v>
+      </c>
+      <c r="F31">
+        <v>0.0631383693189527</v>
+      </c>
+      <c r="G31">
+        <v>0.04687448705221746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002670386713419146</v>
+        <v>0.004561520679480213</v>
       </c>
       <c r="C32">
-        <v>0.04051714957729387</v>
+        <v>0.03312595773424445</v>
       </c>
       <c r="D32">
-        <v>0.04868568158817205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0563168204060758</v>
+      </c>
+      <c r="E32">
+        <v>-0.05405435024300516</v>
+      </c>
+      <c r="F32">
+        <v>0.06406830635051949</v>
+      </c>
+      <c r="G32">
+        <v>-0.01241206618000309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0251455628396224</v>
+        <v>0.02244558298535546</v>
       </c>
       <c r="C33">
-        <v>0.06188010937194297</v>
+        <v>0.0540068599124455</v>
       </c>
       <c r="D33">
-        <v>0.05177561548250036</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07978675688299025</v>
+      </c>
+      <c r="E33">
+        <v>-0.08569814499826742</v>
+      </c>
+      <c r="F33">
+        <v>0.108739609192022</v>
+      </c>
+      <c r="G33">
+        <v>0.02007260602019442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04408950318240811</v>
+        <v>0.04018660256386847</v>
       </c>
       <c r="C34">
-        <v>0.06706771600134737</v>
+        <v>0.06493215455157125</v>
       </c>
       <c r="D34">
-        <v>0.01882715309358993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0383372275796186</v>
+      </c>
+      <c r="E34">
+        <v>-0.01130811530835917</v>
+      </c>
+      <c r="F34">
+        <v>0.07669649202354778</v>
+      </c>
+      <c r="G34">
+        <v>0.0129465276876445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01404020614134873</v>
+        <v>0.01316734598117211</v>
       </c>
       <c r="C36">
-        <v>0.01670732793931052</v>
+        <v>0.01287133626867546</v>
       </c>
       <c r="D36">
-        <v>0.000554708081037094</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02625342757532149</v>
+      </c>
+      <c r="E36">
+        <v>-0.05550276837606793</v>
+      </c>
+      <c r="F36">
+        <v>0.06779434513277773</v>
+      </c>
+      <c r="G36">
+        <v>0.009113561588436672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02790059835549992</v>
+        <v>0.02215381104482453</v>
       </c>
       <c r="C38">
-        <v>0.02959552835860132</v>
+        <v>0.02248490778018981</v>
       </c>
       <c r="D38">
-        <v>-0.008652111619427284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02258644399528569</v>
+      </c>
+      <c r="E38">
+        <v>-0.04637003460572962</v>
+      </c>
+      <c r="F38">
+        <v>0.05362000879864982</v>
+      </c>
+      <c r="G38">
+        <v>0.002914282280515241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04186208626398529</v>
+        <v>0.03760254842706921</v>
       </c>
       <c r="C39">
-        <v>0.06689631554497143</v>
+        <v>0.06461699714831382</v>
       </c>
       <c r="D39">
-        <v>0.02188623501615741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05259916365651823</v>
+      </c>
+      <c r="E39">
+        <v>-0.04142499004381851</v>
+      </c>
+      <c r="F39">
+        <v>0.08018937245359475</v>
+      </c>
+      <c r="G39">
+        <v>-0.0118566270456335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0117940964065672</v>
+        <v>0.01243320704790988</v>
       </c>
       <c r="C40">
-        <v>0.05097932113196726</v>
+        <v>0.03697336807325625</v>
       </c>
       <c r="D40">
-        <v>0.01653483300528621</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03322464593300003</v>
+      </c>
+      <c r="E40">
+        <v>-0.08123105550770331</v>
+      </c>
+      <c r="F40">
+        <v>0.06363133368271778</v>
+      </c>
+      <c r="G40">
+        <v>0.03806623573371839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02101157267597315</v>
+        <v>0.01876528692764123</v>
       </c>
       <c r="C41">
-        <v>0.01290062960649487</v>
+        <v>0.0104856377043128</v>
       </c>
       <c r="D41">
-        <v>0.002142400082100549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01698112151062508</v>
+      </c>
+      <c r="E41">
+        <v>-0.05466006031988826</v>
+      </c>
+      <c r="F41">
+        <v>0.05812126498516434</v>
+      </c>
+      <c r="G41">
+        <v>0.002615110956996951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03715329533901975</v>
+        <v>0.02842247753682919</v>
       </c>
       <c r="C43">
-        <v>0.03414830101533656</v>
+        <v>0.02503607865887278</v>
       </c>
       <c r="D43">
-        <v>0.02997467153884628</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04416467718504836</v>
+      </c>
+      <c r="E43">
+        <v>-0.06876451584177695</v>
+      </c>
+      <c r="F43">
+        <v>0.06485205406888589</v>
+      </c>
+      <c r="G43">
+        <v>0.02050400035279102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01039078858938942</v>
+        <v>0.01234225370317987</v>
       </c>
       <c r="C44">
-        <v>0.06653101754801216</v>
+        <v>0.04934803154299434</v>
       </c>
       <c r="D44">
-        <v>0.01157597267959465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03765874114282292</v>
+      </c>
+      <c r="E44">
+        <v>-0.08514228893302483</v>
+      </c>
+      <c r="F44">
+        <v>0.06695244579273707</v>
+      </c>
+      <c r="G44">
+        <v>-0.007462726793070208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.00668316632044536</v>
+        <v>0.007919714818477452</v>
       </c>
       <c r="C46">
-        <v>0.0305242193678866</v>
+        <v>0.02972995179222582</v>
       </c>
       <c r="D46">
-        <v>-0.01543660814216597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01343875404728811</v>
+      </c>
+      <c r="E46">
+        <v>-0.05515239658516662</v>
+      </c>
+      <c r="F46">
+        <v>0.09608591721191333</v>
+      </c>
+      <c r="G46">
+        <v>0.003107769812113193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08122514084119556</v>
+        <v>0.08648682930519723</v>
       </c>
       <c r="C47">
-        <v>0.07395629423245254</v>
+        <v>0.08310337903059979</v>
       </c>
       <c r="D47">
-        <v>-0.02388343874803723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01399893215976439</v>
+      </c>
+      <c r="E47">
+        <v>-0.07198193473329192</v>
+      </c>
+      <c r="F47">
+        <v>0.06834739633874093</v>
+      </c>
+      <c r="G47">
+        <v>0.05174979202559179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01741268862667399</v>
+        <v>0.01535227287990357</v>
       </c>
       <c r="C48">
-        <v>0.01634182139771856</v>
+        <v>0.01703655758740194</v>
       </c>
       <c r="D48">
-        <v>-0.014864310555636</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01459873494163693</v>
+      </c>
+      <c r="E48">
+        <v>-0.06614555991317611</v>
+      </c>
+      <c r="F48">
+        <v>0.08489444424993933</v>
+      </c>
+      <c r="G48">
+        <v>0.008673190992013831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07835802378084383</v>
+        <v>0.06975871060808052</v>
       </c>
       <c r="C50">
-        <v>0.08237871214838836</v>
+        <v>0.07617198125410364</v>
       </c>
       <c r="D50">
-        <v>-0.02405383545767485</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001008130311628624</v>
+      </c>
+      <c r="E50">
+        <v>-0.07590971461632456</v>
+      </c>
+      <c r="F50">
+        <v>0.04813237366649438</v>
+      </c>
+      <c r="G50">
+        <v>0.06904177604262948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01353367827945155</v>
+        <v>0.00970949805318201</v>
       </c>
       <c r="C51">
-        <v>0.05148566880136422</v>
+        <v>0.03273437238111773</v>
       </c>
       <c r="D51">
-        <v>0.02887056245474095</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04894744550687253</v>
+      </c>
+      <c r="E51">
+        <v>-0.04281630205019603</v>
+      </c>
+      <c r="F51">
+        <v>0.07075845832767499</v>
+      </c>
+      <c r="G51">
+        <v>-0.01947646151257418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07866865208331553</v>
+        <v>0.09190702377368246</v>
       </c>
       <c r="C53">
-        <v>0.08063640696253467</v>
+        <v>0.08968439080844259</v>
       </c>
       <c r="D53">
-        <v>-0.03928444475538384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04066745957941473</v>
+      </c>
+      <c r="E53">
+        <v>-0.06889379383610486</v>
+      </c>
+      <c r="F53">
+        <v>0.07748627381193625</v>
+      </c>
+      <c r="G53">
+        <v>0.06455041877427548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03012284146386445</v>
+        <v>0.02709268701604171</v>
       </c>
       <c r="C54">
-        <v>0.03208882028568825</v>
+        <v>0.02906399466838845</v>
       </c>
       <c r="D54">
-        <v>0.005392801301365638</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03089695525087299</v>
+      </c>
+      <c r="E54">
+        <v>-0.05349341684181282</v>
+      </c>
+      <c r="F54">
+        <v>0.09269585701135839</v>
+      </c>
+      <c r="G54">
+        <v>0.0107818301900552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07282218834503799</v>
+        <v>0.0838780645376267</v>
       </c>
       <c r="C55">
-        <v>0.06175223405885812</v>
+        <v>0.07287369441215136</v>
       </c>
       <c r="D55">
-        <v>-0.04816408572826314</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04717107274853564</v>
+      </c>
+      <c r="E55">
+        <v>-0.05063405783762117</v>
+      </c>
+      <c r="F55">
+        <v>0.05369244498475135</v>
+      </c>
+      <c r="G55">
+        <v>0.05345252921744142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1418272505261342</v>
+        <v>0.145452657714255</v>
       </c>
       <c r="C56">
-        <v>0.1011932205394613</v>
+        <v>0.1109911914779765</v>
       </c>
       <c r="D56">
-        <v>-0.03734308301754256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04304133230664806</v>
+      </c>
+      <c r="E56">
+        <v>-0.05282964749851881</v>
+      </c>
+      <c r="F56">
+        <v>0.03849751246857907</v>
+      </c>
+      <c r="G56">
+        <v>0.05937025730074632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.002054731570819719</v>
+        <v>0.001585477957902488</v>
       </c>
       <c r="C57">
-        <v>-0.003909620601537579</v>
+        <v>-0.002334460962064864</v>
       </c>
       <c r="D57">
-        <v>0.004743909537875011</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.003512324831425949</v>
+      </c>
+      <c r="E57">
+        <v>-0.0003352608773474351</v>
+      </c>
+      <c r="F57">
+        <v>0.001282613495854763</v>
+      </c>
+      <c r="G57">
+        <v>0.001645106332184738</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04098737529303732</v>
+        <v>0.02470827332328673</v>
       </c>
       <c r="C58">
-        <v>0.01860874740696904</v>
+        <v>0.01972194937119177</v>
       </c>
       <c r="D58">
-        <v>0.6358689276673979</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3869399618291559</v>
+      </c>
+      <c r="E58">
+        <v>-0.6371317264423306</v>
+      </c>
+      <c r="F58">
+        <v>-0.5833209425232186</v>
+      </c>
+      <c r="G58">
+        <v>-0.106488680820133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.13778582572065</v>
+        <v>0.1472976540248188</v>
       </c>
       <c r="C59">
-        <v>-0.1940679935664671</v>
+        <v>-0.1848430672031509</v>
       </c>
       <c r="D59">
-        <v>0.01619269138348281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02413726926280936</v>
+      </c>
+      <c r="E59">
+        <v>-0.02633696872212391</v>
+      </c>
+      <c r="F59">
+        <v>0.01950950854827552</v>
+      </c>
+      <c r="G59">
+        <v>-0.03127314997422125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3075100743362704</v>
+        <v>0.2801949442890946</v>
       </c>
       <c r="C60">
-        <v>0.1065692980690967</v>
+        <v>0.1036685214707726</v>
       </c>
       <c r="D60">
-        <v>0.1720197301431821</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2470773021163292</v>
+      </c>
+      <c r="E60">
+        <v>0.2589386840487818</v>
+      </c>
+      <c r="F60">
+        <v>-0.07606914821316296</v>
+      </c>
+      <c r="G60">
+        <v>0.04544049640841503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03993980729813876</v>
+        <v>0.03894750417699622</v>
       </c>
       <c r="C61">
-        <v>0.0641778483777871</v>
+        <v>0.06049358032183942</v>
       </c>
       <c r="D61">
-        <v>0.01774782227701371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04453714201459202</v>
+      </c>
+      <c r="E61">
+        <v>-0.04597543089729564</v>
+      </c>
+      <c r="F61">
+        <v>0.07089699127814909</v>
+      </c>
+      <c r="G61">
+        <v>0.01290653184431674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0144232867297811</v>
+        <v>0.01411263703500333</v>
       </c>
       <c r="C63">
-        <v>0.03456459668049856</v>
+        <v>0.03195471413566252</v>
       </c>
       <c r="D63">
-        <v>-0.009242039061851099</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0201030052477302</v>
+      </c>
+      <c r="E63">
+        <v>-0.05732913096513406</v>
+      </c>
+      <c r="F63">
+        <v>0.06335730412656371</v>
+      </c>
+      <c r="G63">
+        <v>0.02815040729656229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04732301750554942</v>
+        <v>0.0548491340955975</v>
       </c>
       <c r="C64">
-        <v>0.04840950446241969</v>
+        <v>0.05737317575860564</v>
       </c>
       <c r="D64">
-        <v>0.007065792664425438</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01045509963187548</v>
+      </c>
+      <c r="E64">
+        <v>-0.0397975646687722</v>
+      </c>
+      <c r="F64">
+        <v>0.0824679583538067</v>
+      </c>
+      <c r="G64">
+        <v>0.01261739251448046</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08305745091858212</v>
+        <v>0.06775577657652496</v>
       </c>
       <c r="C65">
-        <v>0.03359274797200799</v>
+        <v>0.03108483052959202</v>
       </c>
       <c r="D65">
-        <v>0.05116023645091933</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0823438349632637</v>
+      </c>
+      <c r="E65">
+        <v>-0.04473504055889433</v>
+      </c>
+      <c r="F65">
+        <v>-0.0007132307070586718</v>
+      </c>
+      <c r="G65">
+        <v>0.0009125774467585042</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05749037178667735</v>
+        <v>0.04901450205353682</v>
       </c>
       <c r="C66">
-        <v>0.09309096056590642</v>
+        <v>0.08381560242723417</v>
       </c>
       <c r="D66">
-        <v>0.0437067983394424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07750687655829437</v>
+      </c>
+      <c r="E66">
+        <v>-0.04871611221208436</v>
+      </c>
+      <c r="F66">
+        <v>0.08260712605747007</v>
+      </c>
+      <c r="G66">
+        <v>0.004695234156722042</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04986562491021212</v>
+        <v>0.04410414460397324</v>
       </c>
       <c r="C67">
-        <v>0.0318681985541326</v>
+        <v>0.02789442073112722</v>
       </c>
       <c r="D67">
-        <v>-0.01152894742952787</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.00867169116808263</v>
+      </c>
+      <c r="E67">
+        <v>-0.02489056184662782</v>
+      </c>
+      <c r="F67">
+        <v>0.04508304704943809</v>
+      </c>
+      <c r="G67">
+        <v>0.009916265861026122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.137949785948121</v>
+        <v>0.1568558879498647</v>
       </c>
       <c r="C68">
-        <v>-0.277095980659883</v>
+        <v>-0.2434105327295993</v>
       </c>
       <c r="D68">
-        <v>-0.01910810036604039</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02120855646975311</v>
+      </c>
+      <c r="E68">
+        <v>-0.04158621429071228</v>
+      </c>
+      <c r="F68">
+        <v>0.01178868237227601</v>
+      </c>
+      <c r="G68">
+        <v>0.009667763231297742</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08806034479076931</v>
+        <v>0.0856618374912821</v>
       </c>
       <c r="C69">
-        <v>0.07271694232157933</v>
+        <v>0.0901097173602264</v>
       </c>
       <c r="D69">
-        <v>-0.03278173593845696</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.004723797666907835</v>
+      </c>
+      <c r="E69">
+        <v>-0.05636576551564119</v>
+      </c>
+      <c r="F69">
+        <v>0.0866922038051724</v>
+      </c>
+      <c r="G69">
+        <v>0.0307338669462226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1245654289013245</v>
+        <v>0.1470723323598848</v>
       </c>
       <c r="C71">
-        <v>-0.2464255633756869</v>
+        <v>-0.2340929894662347</v>
       </c>
       <c r="D71">
-        <v>0.01439131679776839</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.00376731293827097</v>
+      </c>
+      <c r="E71">
+        <v>-0.06691233663211722</v>
+      </c>
+      <c r="F71">
+        <v>0.04759491372025987</v>
+      </c>
+      <c r="G71">
+        <v>0.03865299998993669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08911292308542913</v>
+        <v>0.09814663674900141</v>
       </c>
       <c r="C72">
-        <v>0.05976136905141768</v>
+        <v>0.05981153463074421</v>
       </c>
       <c r="D72">
-        <v>0.01223404832939973</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03356064958277547</v>
+      </c>
+      <c r="E72">
+        <v>-0.02488134441401128</v>
+      </c>
+      <c r="F72">
+        <v>0.0652498021428168</v>
+      </c>
+      <c r="G72">
+        <v>0.03530354812203342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4030210841253217</v>
+        <v>0.3428555848324447</v>
       </c>
       <c r="C73">
-        <v>0.05602902788617647</v>
+        <v>0.07097244114790198</v>
       </c>
       <c r="D73">
-        <v>0.3997673270657309</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4905835504218549</v>
+      </c>
+      <c r="E73">
+        <v>0.4645179657107363</v>
+      </c>
+      <c r="F73">
+        <v>-0.2195199150177883</v>
+      </c>
+      <c r="G73">
+        <v>0.1051184946651464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1018400823602191</v>
+        <v>0.1077694141926317</v>
       </c>
       <c r="C74">
-        <v>0.09778378965369437</v>
+        <v>0.09804758912016177</v>
       </c>
       <c r="D74">
-        <v>-0.02015201311651951</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03081314474053325</v>
+      </c>
+      <c r="E74">
+        <v>-0.06848846410543723</v>
+      </c>
+      <c r="F74">
+        <v>0.03723761724391668</v>
+      </c>
+      <c r="G74">
+        <v>0.07242926169107992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2497590911093278</v>
+        <v>0.2549628207106684</v>
       </c>
       <c r="C75">
-        <v>0.1115000116640263</v>
+        <v>0.1357425305351122</v>
       </c>
       <c r="D75">
-        <v>-0.09024933870712691</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1256190787516805</v>
+      </c>
+      <c r="E75">
+        <v>-0.06516993441801021</v>
+      </c>
+      <c r="F75">
+        <v>0.01707027354132741</v>
+      </c>
+      <c r="G75">
+        <v>0.07691517944720619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1088887350984674</v>
+        <v>0.1240963903400376</v>
       </c>
       <c r="C76">
-        <v>0.09066697808716138</v>
+        <v>0.09984180708970185</v>
       </c>
       <c r="D76">
-        <v>-0.05157576232071893</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06070446256492586</v>
+      </c>
+      <c r="E76">
+        <v>-0.07933931315698416</v>
+      </c>
+      <c r="F76">
+        <v>0.0595549692171868</v>
+      </c>
+      <c r="G76">
+        <v>0.05816440563789019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07498215225814708</v>
+        <v>0.05933754257898015</v>
       </c>
       <c r="C77">
-        <v>0.05923331871938903</v>
+        <v>0.06991436206062177</v>
       </c>
       <c r="D77">
-        <v>0.05170046736646507</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06259812052874877</v>
+      </c>
+      <c r="E77">
+        <v>-0.0956767790888</v>
+      </c>
+      <c r="F77">
+        <v>0.1105376495731752</v>
+      </c>
+      <c r="G77">
+        <v>-0.1439334859428305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04560947457911713</v>
+        <v>0.04212783963134519</v>
       </c>
       <c r="C78">
-        <v>0.0522206236451447</v>
+        <v>0.05790746557972083</v>
       </c>
       <c r="D78">
-        <v>0.02769614994962397</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06329605974089732</v>
+      </c>
+      <c r="E78">
+        <v>-0.05299777286698699</v>
+      </c>
+      <c r="F78">
+        <v>0.08279835073400135</v>
+      </c>
+      <c r="G78">
+        <v>0.008640210071956773</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02773050749191282</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04542218482721709</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06053430160593758</v>
+      </c>
+      <c r="E79">
+        <v>-0.06635669126480377</v>
+      </c>
+      <c r="F79">
+        <v>0.0295054925995562</v>
+      </c>
+      <c r="G79">
+        <v>0.07998485324860537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03948571494259437</v>
+        <v>0.03078624702107933</v>
       </c>
       <c r="C80">
-        <v>0.05062845569152195</v>
+        <v>0.05072896583046362</v>
       </c>
       <c r="D80">
-        <v>0.02576402367786899</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03862907559306031</v>
+      </c>
+      <c r="E80">
+        <v>-0.01656440319998626</v>
+      </c>
+      <c r="F80">
+        <v>0.0322155498066822</v>
+      </c>
+      <c r="G80">
+        <v>-0.04495886500579002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1383759382853099</v>
+        <v>0.1382257448123186</v>
       </c>
       <c r="C81">
-        <v>0.08211123038046321</v>
+        <v>0.09748971976791859</v>
       </c>
       <c r="D81">
-        <v>-0.07741371043801819</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1046185890007036</v>
+      </c>
+      <c r="E81">
+        <v>-0.08065310528025696</v>
+      </c>
+      <c r="F81">
+        <v>0.005848991214964889</v>
+      </c>
+      <c r="G81">
+        <v>0.05318123970624238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1655273048888148</v>
+        <v>0.2052867570081192</v>
       </c>
       <c r="C82">
-        <v>0.09532552579762768</v>
+        <v>0.1578276256903917</v>
       </c>
       <c r="D82">
-        <v>-0.1441189116756631</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2152798856890997</v>
+      </c>
+      <c r="E82">
+        <v>-0.005905294076091863</v>
+      </c>
+      <c r="F82">
+        <v>0.1063565799481382</v>
+      </c>
+      <c r="G82">
+        <v>0.05469080395719501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03716951996365084</v>
+        <v>0.02598034073228719</v>
       </c>
       <c r="C83">
-        <v>0.0300477325270027</v>
+        <v>0.04257367429920596</v>
       </c>
       <c r="D83">
-        <v>0.03487553233170691</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03244967694573896</v>
+      </c>
+      <c r="E83">
+        <v>-0.023194852167864</v>
+      </c>
+      <c r="F83">
+        <v>0.04128032370865664</v>
+      </c>
+      <c r="G83">
+        <v>-0.020737580491781</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001525255886968829</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007626036883247905</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001192981599612199</v>
+      </c>
+      <c r="E84">
+        <v>-0.0006865144120637115</v>
+      </c>
+      <c r="F84">
+        <v>0.0006530669889531299</v>
+      </c>
+      <c r="G84">
+        <v>-0.0002695923247597809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2161269428394727</v>
+        <v>0.2004834644940788</v>
       </c>
       <c r="C85">
-        <v>0.1084037523139356</v>
+        <v>0.1197827072545592</v>
       </c>
       <c r="D85">
-        <v>-0.1182341218797638</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09768617940022929</v>
+      </c>
+      <c r="E85">
+        <v>0.004617264534039037</v>
+      </c>
+      <c r="F85">
+        <v>-0.01177444702030048</v>
+      </c>
+      <c r="G85">
+        <v>0.135798601386188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006551392090237499</v>
+        <v>0.008839305607148353</v>
       </c>
       <c r="C86">
-        <v>0.03116145696115958</v>
+        <v>0.02185042913367034</v>
       </c>
       <c r="D86">
-        <v>0.03284781435947705</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05396665639982097</v>
+      </c>
+      <c r="E86">
+        <v>-0.06845253337305957</v>
+      </c>
+      <c r="F86">
+        <v>0.1233624550222608</v>
+      </c>
+      <c r="G86">
+        <v>-0.008210720988556602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02277769645267656</v>
+        <v>0.02169596494822369</v>
       </c>
       <c r="C87">
-        <v>0.006889334565816671</v>
+        <v>0.01511323517304126</v>
       </c>
       <c r="D87">
-        <v>0.08329473510303741</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08403575920829978</v>
+      </c>
+      <c r="E87">
+        <v>-0.1197745180441119</v>
+      </c>
+      <c r="F87">
+        <v>0.06072344134844907</v>
+      </c>
+      <c r="G87">
+        <v>-0.04398581371859332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1033739995939788</v>
+        <v>0.09128580371530254</v>
       </c>
       <c r="C88">
-        <v>0.07494762853427743</v>
+        <v>0.06413340075044388</v>
       </c>
       <c r="D88">
-        <v>-0.02263090522984073</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.005357691015043903</v>
+      </c>
+      <c r="E88">
+        <v>-0.04673908853464519</v>
+      </c>
+      <c r="F88">
+        <v>0.06706402467251968</v>
+      </c>
+      <c r="G88">
+        <v>-0.02197899363317204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.198184127514731</v>
+        <v>0.2274169296232738</v>
       </c>
       <c r="C89">
-        <v>-0.3721839462954047</v>
+        <v>-0.3772573269677982</v>
       </c>
       <c r="D89">
-        <v>-0.03249537498635036</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02333400481131026</v>
+      </c>
+      <c r="E89">
+        <v>-0.06562687112593714</v>
+      </c>
+      <c r="F89">
+        <v>0.07522712982686688</v>
+      </c>
+      <c r="G89">
+        <v>-0.0631292889704968</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1874716482564384</v>
+        <v>0.2056829410830675</v>
       </c>
       <c r="C90">
-        <v>-0.3289644321908343</v>
+        <v>-0.3083197635056789</v>
       </c>
       <c r="D90">
-        <v>-0.03447243931048889</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02430497558379073</v>
+      </c>
+      <c r="E90">
+        <v>-0.0717127092127486</v>
+      </c>
+      <c r="F90">
+        <v>0.03492686255292181</v>
+      </c>
+      <c r="G90">
+        <v>-0.01501430209933604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1858619610509464</v>
+        <v>0.1838900605413154</v>
       </c>
       <c r="C91">
-        <v>0.1326846690869438</v>
+        <v>0.1470294332253922</v>
       </c>
       <c r="D91">
-        <v>-0.08735047049103259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1043597453392507</v>
+      </c>
+      <c r="E91">
+        <v>-0.0619761951377889</v>
+      </c>
+      <c r="F91">
+        <v>0.03116934369990745</v>
+      </c>
+      <c r="G91">
+        <v>0.06042168075456011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1707096294733045</v>
+        <v>0.1852896231578824</v>
       </c>
       <c r="C92">
-        <v>-0.2769026507248726</v>
+        <v>-0.2831388537607905</v>
       </c>
       <c r="D92">
-        <v>-0.01563859275223682</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02055985207375923</v>
+      </c>
+      <c r="E92">
+        <v>-0.0734652969686625</v>
+      </c>
+      <c r="F92">
+        <v>0.08113104568231759</v>
+      </c>
+      <c r="G92">
+        <v>-0.008086775472323889</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2111992096490491</v>
+        <v>0.2284448723784858</v>
       </c>
       <c r="C93">
-        <v>-0.3297492302679454</v>
+        <v>-0.3139571119518947</v>
       </c>
       <c r="D93">
-        <v>-0.03302240418775231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01768113210971496</v>
+      </c>
+      <c r="E93">
+        <v>-0.04519727909016986</v>
+      </c>
+      <c r="F93">
+        <v>0.03419144647895965</v>
+      </c>
+      <c r="G93">
+        <v>0.02932942001471576</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3429730389946232</v>
+        <v>0.3448993165740185</v>
       </c>
       <c r="C94">
-        <v>0.1754326849484076</v>
+        <v>0.2020528046023735</v>
       </c>
       <c r="D94">
-        <v>-0.4847694005553788</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.5004420467308246</v>
+      </c>
+      <c r="E94">
+        <v>0.0132692642432762</v>
+      </c>
+      <c r="F94">
+        <v>-0.4454348275132368</v>
+      </c>
+      <c r="G94">
+        <v>-0.346412909546498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1090553261141569</v>
+        <v>0.08169424608157906</v>
       </c>
       <c r="C95">
-        <v>0.07515337721608474</v>
+        <v>0.06405745721379248</v>
       </c>
       <c r="D95">
-        <v>0.1397282128179491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1705201584271536</v>
+      </c>
+      <c r="E95">
+        <v>0.1028883834590717</v>
+      </c>
+      <c r="F95">
+        <v>0.2631908825864331</v>
+      </c>
+      <c r="G95">
+        <v>-0.8512174901713608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1926425576901879</v>
+        <v>0.185767006531333</v>
       </c>
       <c r="C98">
-        <v>0.02060253147798071</v>
+        <v>0.04205453157337712</v>
       </c>
       <c r="D98">
-        <v>0.151611959808513</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.197349007934518</v>
+      </c>
+      <c r="E98">
+        <v>0.1427043331665359</v>
+      </c>
+      <c r="F98">
+        <v>-0.03060802103386738</v>
+      </c>
+      <c r="G98">
+        <v>0.09519989173711337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006554517894869944</v>
+        <v>0.00536046226705377</v>
       </c>
       <c r="C101">
-        <v>0.03332416358211591</v>
+        <v>0.02938410162924474</v>
       </c>
       <c r="D101">
-        <v>-0.01449291453637982</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01818112696881622</v>
+      </c>
+      <c r="E101">
+        <v>-0.04627320856748761</v>
+      </c>
+      <c r="F101">
+        <v>0.08171249134608249</v>
+      </c>
+      <c r="G101">
+        <v>0.008558495189563116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1205835356932181</v>
+        <v>0.1232585342405112</v>
       </c>
       <c r="C102">
-        <v>0.07648022027158435</v>
+        <v>0.1032026699258819</v>
       </c>
       <c r="D102">
-        <v>-0.02445743697662317</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04015645596912819</v>
+      </c>
+      <c r="E102">
+        <v>0.001556808138846284</v>
+      </c>
+      <c r="F102">
+        <v>0.04729885871964314</v>
+      </c>
+      <c r="G102">
+        <v>0.01905594418784498</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
